--- a/resources/genes_of_interest.xlsx
+++ b/resources/genes_of_interest.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/_CODE REPOS/GitHub/Da_RNAseq/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F9D6AAAF-CFF3-4E46-AE82-A3C857816BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216D0BC-F13F-A344-9D40-E774C7BE44A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="36040" windowHeight="28280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="genes_of_interest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="150">
   <si>
     <t>ac</t>
   </si>
@@ -317,13 +330,166 @@
   </si>
   <si>
     <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>Patr-1</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t>P-bodies</t>
+  </si>
+  <si>
+    <t>Ref func</t>
+  </si>
+  <si>
+    <t>Ref expn</t>
+  </si>
+  <si>
+    <t>10.1016/j.celrep.2022.111495</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>10.7554/eLife.44745</t>
+  </si>
+  <si>
+    <t>zfh2</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pgen.1008553</t>
+  </si>
+  <si>
+    <t>ZFH</t>
+  </si>
+  <si>
+    <t>AdoR</t>
+  </si>
+  <si>
+    <t>Adgf-A</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1900103117</t>
+  </si>
+  <si>
+    <t>proliferation</t>
+  </si>
+  <si>
+    <t>Dutta</t>
+  </si>
+  <si>
+    <t>RnrL</t>
+  </si>
+  <si>
+    <t>dNTP synth</t>
+  </si>
+  <si>
+    <t>dATP signaling</t>
+  </si>
+  <si>
+    <t>receptor</t>
+  </si>
+  <si>
+    <t>deaminase</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>10.1016/j.isci.2020.100954</t>
+  </si>
+  <si>
+    <t>RnrS</t>
+  </si>
+  <si>
+    <t>10.1016/j.isci.2020.100954, Dutta</t>
+  </si>
+  <si>
+    <t>Eip75B</t>
+  </si>
+  <si>
+    <t>10.7554/eLife.55795</t>
+  </si>
+  <si>
+    <t>Nuclear receptor</t>
+  </si>
+  <si>
+    <t>E(y)2</t>
+  </si>
+  <si>
+    <t>Sgf11</t>
+  </si>
+  <si>
+    <t>Cp190</t>
+  </si>
+  <si>
+    <t>Nup98</t>
+  </si>
+  <si>
+    <t>chromatin</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>10.7554/eLife.62312</t>
+  </si>
+  <si>
+    <t>mod(mdg4)</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>Zfh2</t>
+  </si>
+  <si>
+    <t>cyc</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>CG11247</t>
+  </si>
+  <si>
+    <t>jumu</t>
+  </si>
+  <si>
+    <t>CG30403</t>
+  </si>
+  <si>
+    <t>Sox100B</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1719169115</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.1719169115, Dutta</t>
+  </si>
+  <si>
+    <t>TNF</t>
+  </si>
+  <si>
+    <t>Ilp6</t>
+  </si>
+  <si>
+    <t>10.1016/j.stemcr.2020.01.003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,8 +624,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +825,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -806,9 +1016,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1163,12 +1385,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,9 +1398,11 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
+    <col min="11" max="11" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1206,8 +1430,14 @@
       <c r="I1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1466,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1265,7 +1495,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1524,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1323,7 +1553,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1352,7 +1582,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1611,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1494,7 +1724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1523,7 +1753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1782,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1581,7 +1811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2848,7 +3078,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2874,7 +3104,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2897,7 +3127,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2920,7 +3150,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2943,7 +3173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2969,7 +3199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -2995,7 +3225,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3021,7 +3251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -3047,7 +3277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3073,7 +3303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3099,7 +3329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -3125,7 +3355,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -3151,7 +3381,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3177,7 +3407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3201,6 +3431,551 @@
       </c>
       <c r="I78" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J106" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/resources/genes_of_interest.xlsx
+++ b/resources/genes_of_interest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/_CODE REPOS/GitHub/Da_RNAseq/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75FFF52-03BB-174C-A196-D8112893D413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3DCDF-F813-8848-8325-C3FA1E2DE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="460" windowWidth="36040" windowHeight="28280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="211">
   <si>
     <t>ac</t>
   </si>
@@ -652,6 +652,21 @@
   </si>
   <si>
     <t xml:space="preserve"> FlyCellAtlas marker</t>
+  </si>
+  <si>
+    <t>bonafide_celltype</t>
+  </si>
+  <si>
+    <t>enterocyte of posterior adult midgut epithelium</t>
+  </si>
+  <si>
+    <t>enteroendocrine cell</t>
+  </si>
+  <si>
+    <t>intestinal stem cell</t>
+  </si>
+  <si>
+    <t>enteroblast</t>
   </si>
 </sst>
 </file>
@@ -832,7 +847,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,6 +1033,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1179,7 +1206,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1206,6 +1233,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1567,7 +1618,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A53" sqref="A1:M122"/>
+      <selection pane="topRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6592,2684 +6643,2881 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884354A5-233D-0447-811C-898E5EAF17E6}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="11" max="11" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="25" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="N1" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="E2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="18">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="E3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="L3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="18">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="E4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="L4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="18">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="E5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="L5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="K6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="E7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="L7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="E8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="L8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="E9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="L9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="18">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="E10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="L10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="B11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="L11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="B13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="L13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="E14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="L14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="E15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="L15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="L16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="E17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="L17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J19" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="E25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="L25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="E26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="L26" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="E29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="L29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="E30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="L30" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="E31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="L31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J32" s="5" t="s">
+      <c r="E32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J32" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="L32" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="8">
+      <c r="B33" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="18">
         <v>0</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="6" t="s">
+      <c r="E33" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L33" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="L33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="8">
+      <c r="B34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="18">
         <v>0</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="6" t="s">
+      <c r="E34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="L34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="E35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="L35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" t="s">
-        <v>63</v>
-      </c>
-      <c r="K36" t="s">
-        <v>63</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="B36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="8">
+      <c r="B37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="18">
         <v>0</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="E37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="L37" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="8">
+      <c r="B38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="18">
         <v>0</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="E38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="L38" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="18">
         <v>0</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="E39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="L39" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="E40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="L40" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="B41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="E41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="L41" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K42" s="6" t="s">
+      <c r="B42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="L42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N42" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="E43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="L43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="E44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J44" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K44" t="s">
-        <v>63</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="K44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="B45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K45" s="6" t="s">
+      <c r="E45" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="L45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J46" s="5" t="s">
+      <c r="E46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="L46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K47" s="6" t="s">
+      <c r="E47" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="L47" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="E48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="K48" t="s">
-        <v>63</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="K48" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N48" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="E49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K49" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M49" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="K49" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M49" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="B50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="L50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="L50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J51" t="s">
-        <v>63</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="B51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="L51" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M51" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="5" t="s">
+      <c r="E52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="L52" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M52" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="B53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="E53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="L53" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="E54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="L54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B55" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="E55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="K55" t="s">
-        <v>63</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M55" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="K55" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="B56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="E56" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="L56" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="B57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="E57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="L57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J58" t="s">
-        <v>63</v>
-      </c>
-      <c r="K58" t="s">
+      <c r="B58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K58" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="L58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M58" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="8">
+      <c r="B59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="18">
         <v>0</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J59" s="6" t="s">
+      <c r="E59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J59" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K59" s="6" t="s">
+      <c r="K59" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L59" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="L59" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="B60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="E60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="L60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="8">
+      <c r="B61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="18">
         <v>0</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K61" s="6" t="s">
+      <c r="E61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J61" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K61" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="L61" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="B62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" s="6" t="s">
+      <c r="E62" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="L62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="E63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="K63" t="s">
-        <v>63</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M63" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="K63" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M63" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="8">
+      <c r="B64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="18">
         <v>0</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K64" s="6" t="s">
+      <c r="E64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="L64" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="L64" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M64" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="E65" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="L65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M65" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -9281,7 +9529,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9293,7 +9541,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9305,7 +9553,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9317,7 +9565,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9329,7 +9577,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -9341,7 +9589,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="E72" s="3"/>
@@ -9353,7 +9601,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="E73" s="3"/>
@@ -9364,7 +9612,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="E74" s="3"/>
@@ -9375,7 +9623,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="E75" s="3"/>
@@ -9386,7 +9634,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="E76" s="3"/>
@@ -9397,7 +9645,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="E77" s="3"/>
@@ -9408,7 +9656,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="E78" s="3"/>
@@ -9419,7 +9667,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="13"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="E79" s="3"/>
@@ -9430,7 +9678,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="13"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="E80" s="3"/>

--- a/resources/genes_of_interest.xlsx
+++ b/resources/genes_of_interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JQ/Documents/_CODE REPOS/GitHub/Da_RNAseq/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3DCDF-F813-8848-8325-C3FA1E2DE6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89277E9F-CE02-CF42-88EE-A2C8519F8EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="36040" windowHeight="28280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="genes_of_interest" sheetId="1" r:id="rId1"/>
@@ -1616,24 +1616,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K29" sqref="K29"/>
+      <selection pane="topRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="9" width="10.83203125" style="3"/>
     <col min="10" max="10" width="41.1640625" customWidth="1"/>
-    <col min="11" max="11" width="45.83203125" customWidth="1"/>
+    <col min="11" max="11" width="51" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>85</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>86</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>87</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>90</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>92</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>95</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>149</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>96</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>97</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>98</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>147</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>146</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>152</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>153</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>25</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>46</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>160</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>167</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>104</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>174</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>177</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>65</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>72</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>75</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>76</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>84</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>80</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>81</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>101</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>102</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>103</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>104</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>105</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>106</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>107</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>108</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>109</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>110</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>111</v>
       </c>
@@ -6645,7 +6645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884354A5-233D-0447-811C-898E5EAF17E6}">
   <dimension ref="A1:N122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
